--- a/Exported csv/table_H1_groups_mean_sem.xlsx
+++ b/Exported csv/table_H1_groups_mean_sem.xlsx
@@ -405,10 +405,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.71526195899772</v>
+        <v>21.7153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4824264219638806</v>
+        <v>0.4824</v>
       </c>
       <c r="E2" t="n">
         <v>1317</v>
@@ -426,10 +426,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.05208333333333</v>
+        <v>27.0521</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61162504136668</v>
+        <v>1.6116</v>
       </c>
       <c r="E3" t="n">
         <v>192</v>
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.10344827586207</v>
+        <v>25.1034</v>
       </c>
       <c r="D4" t="n">
-        <v>1.607054347929364</v>
+        <v>1.6071</v>
       </c>
       <c r="E4" t="n">
         <v>174</v>
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28.38216560509554</v>
+        <v>28.3822</v>
       </c>
       <c r="D5" t="n">
-        <v>1.66984512450135</v>
+        <v>1.6698</v>
       </c>
       <c r="E5" t="n">
         <v>157</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27.02484472049689</v>
+        <v>27.0248</v>
       </c>
       <c r="D6" t="n">
-        <v>1.484232614074746</v>
+        <v>1.4842</v>
       </c>
       <c r="E6" t="n">
         <v>161</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28.24025974025974</v>
+        <v>28.2403</v>
       </c>
       <c r="D7" t="n">
-        <v>1.621361706858452</v>
+        <v>1.6214</v>
       </c>
       <c r="E7" t="n">
         <v>154</v>
